--- a/dividendStocksResults/DividendStockResults 2024-09-25.xlsx
+++ b/dividendStocksResults/DividendStockResults 2024-09-25.xlsx
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>257.37</v>
+        <v>256.71</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>14739271056</v>
+        <v>14701473648</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -634,13 +634,13 @@
         <v>10.48</v>
       </c>
       <c r="K2" t="n">
-        <v>31.34835566382461</v>
+        <v>31.2679658952497</v>
       </c>
       <c r="L2" t="n">
         <v>32.90335677762882</v>
       </c>
       <c r="M2" t="n">
-        <v>1.212262501457046</v>
+        <v>1.215379221689844</v>
       </c>
       <c r="N2" t="n">
         <v>3.12</v>
@@ -661,25 +661,25 @@
         <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1144304156483582</v>
+        <v>0.114724615618472</v>
       </c>
       <c r="U2" t="n">
         <v>606699000</v>
       </c>
       <c r="V2" t="n">
-        <v>57268800</v>
+        <v>57268800.00000001</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.39105</v>
+        <v>0.39206</v>
       </c>
       <c r="Y2" t="n">
         <v>0.91176</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.83653</v>
+        <v>0.83611</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>0.87431</v>
       </c>
       <c r="AE2" t="n">
-        <v>78.48999999999999</v>
+        <v>78.51000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>264.67</v>
+        <v>264.638</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>150332560000</v>
+        <v>150314384000</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -741,13 +741,13 @@
         <v>12.75</v>
       </c>
       <c r="K3" t="n">
-        <v>21.83745874587459</v>
+        <v>21.83481848184818</v>
       </c>
       <c r="L3" t="n">
         <v>35.0505470156488</v>
       </c>
       <c r="M3" t="n">
-        <v>1.738013375146409</v>
+        <v>1.738223535546671</v>
       </c>
       <c r="N3" t="n">
         <v>4.6</v>
@@ -768,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>0.159843199009579</v>
+        <v>0.1598625272329192</v>
       </c>
       <c r="U3" t="n">
         <v>6176000000</v>
@@ -780,13 +780,13 @@
         <v>0.72727</v>
       </c>
       <c r="X3" t="n">
-        <v>0.56065</v>
+        <v>0.56072</v>
       </c>
       <c r="Y3" t="n">
         <v>0.8559099999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7716499999999999</v>
+        <v>0.77162</v>
       </c>
       <c r="AA3" t="n">
         <v>1</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56.265</v>
+        <v>56.53</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>40679595000</v>
+        <v>40871190000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -848,13 +848,13 @@
         <v>4.34</v>
       </c>
       <c r="K4" t="n">
-        <v>14.72905759162304</v>
+        <v>14.79842931937173</v>
       </c>
       <c r="L4" t="n">
         <v>38.06421591437878</v>
       </c>
       <c r="M4" t="n">
-        <v>2.274948902514885</v>
+        <v>2.264284450734123</v>
       </c>
       <c r="N4" t="n">
         <v>1.28</v>
@@ -875,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5703148600964847</v>
+        <v>0.5676413515536655</v>
       </c>
       <c r="U4" t="n">
         <v>2884000000</v>
@@ -887,13 +887,13 @@
         <v>0.51515</v>
       </c>
       <c r="X4" t="n">
-        <v>0.73385</v>
+        <v>0.73041</v>
       </c>
       <c r="Y4" t="n">
         <v>0.78814</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.18526</v>
+        <v>0.18908</v>
       </c>
       <c r="AA4" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0.8917</v>
       </c>
       <c r="AE4" t="n">
-        <v>67.70999999999999</v>
+        <v>67.66</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.67</v>
+        <v>54.77</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3543091629</v>
+        <v>3549572499</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
         <v>5.92</v>
       </c>
       <c r="K5" t="n">
-        <v>15.35674157303371</v>
+        <v>15.38483146067416</v>
       </c>
       <c r="L5" t="n">
         <v>39.0303996356598</v>
       </c>
       <c r="M5" t="n">
-        <v>2.999817084324127</v>
+        <v>2.994339967135293</v>
       </c>
       <c r="N5" t="n">
         <v>1.64</v>
@@ -982,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5979732084351014</v>
+        <v>0.5968814187538248</v>
       </c>
       <c r="U5" t="n">
         <v>325122000</v>
@@ -994,13 +994,13 @@
         <v>0.12121</v>
       </c>
       <c r="X5" t="n">
-        <v>0.96768</v>
+        <v>0.96592</v>
       </c>
       <c r="Y5" t="n">
         <v>0.76863</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.14575</v>
+        <v>0.14731</v>
       </c>
       <c r="AA5" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>66.37</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="6">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.11</v>
+        <v>57.245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1653620050</v>
+        <v>1657528975</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1062,13 +1062,13 @@
         <v>5.47</v>
       </c>
       <c r="K6" t="n">
-        <v>21.30970149253731</v>
+        <v>21.36007462686567</v>
       </c>
       <c r="L6" t="n">
         <v>41.79278230500582</v>
       </c>
       <c r="M6" t="n">
-        <v>2.381369287340221</v>
+        <v>2.375753340903136</v>
       </c>
       <c r="N6" t="n">
         <v>1.36</v>
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3263253559627832</v>
+        <v>0.3255557879122115</v>
       </c>
       <c r="U6" t="n">
         <v>211300000</v>
@@ -1101,13 +1101,13 @@
         <v>0.18182</v>
       </c>
       <c r="X6" t="n">
-        <v>0.76818</v>
+        <v>0.76637</v>
       </c>
       <c r="Y6" t="n">
         <v>0.71783</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.53382</v>
+        <v>0.53492</v>
       </c>
       <c r="AA6" t="n">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>66.27</v>
+        <v>66.23</v>
       </c>
     </row>
     <row r="7">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>280.41</v>
+        <v>280.52</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>30247546290</v>
+        <v>30259411880</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
         <v>11.24</v>
       </c>
       <c r="K7" t="n">
-        <v>27.06660231660232</v>
+        <v>27.07722007722008</v>
       </c>
       <c r="L7" t="n">
         <v>40.90912723181981</v>
       </c>
       <c r="M7" t="n">
-        <v>1.569130915445241</v>
+        <v>1.568515613859974</v>
       </c>
       <c r="N7" t="n">
         <v>4.4</v>
@@ -1196,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2917531374957557</v>
+        <v>0.2916387326578671</v>
       </c>
       <c r="U7" t="n">
         <v>580150000</v>
@@ -1208,13 +1208,13 @@
         <v>0.39394</v>
       </c>
       <c r="X7" t="n">
-        <v>0.50617</v>
+        <v>0.50597</v>
       </c>
       <c r="Y7" t="n">
         <v>0.73333</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.58321</v>
+        <v>0.5833700000000001</v>
       </c>
       <c r="AA7" t="n">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>65.67</v>
+        <v>65.66</v>
       </c>
     </row>
     <row r="8">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>425.66</v>
+        <v>424.82</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>14886692312</v>
+        <v>14857314824</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1276,13 +1276,13 @@
         <v>17.76</v>
       </c>
       <c r="K8" t="n">
-        <v>26.19446153846154</v>
+        <v>26.14276923076923</v>
       </c>
       <c r="L8" t="n">
         <v>31.4161007035983</v>
       </c>
       <c r="M8" t="n">
-        <v>1.418972889160363</v>
+        <v>1.421778635657455</v>
       </c>
       <c r="N8" t="n">
         <v>6.04</v>
@@ -1303,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1022230561997561</v>
+        <v>0.1024251826702796</v>
       </c>
       <c r="U8" t="n">
         <v>485468000</v>
@@ -1315,13 +1315,13 @@
         <v>0.30303</v>
       </c>
       <c r="X8" t="n">
-        <v>0.45773</v>
+        <v>0.45864</v>
       </c>
       <c r="Y8" t="n">
         <v>0.95492</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.85397</v>
+        <v>0.85368</v>
       </c>
       <c r="AA8" t="n">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0.9376100000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>65.23999999999999</v>
+        <v>65.26000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>369.177</v>
+        <v>369.53</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>14123936748.3</v>
+        <v>14137441787</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1383,13 +1383,13 @@
         <v>12.12</v>
       </c>
       <c r="K9" t="n">
-        <v>30.97122483221477</v>
+        <v>31.0008389261745</v>
       </c>
       <c r="L9" t="n">
         <v>37.71786610624311</v>
       </c>
       <c r="M9" t="n">
-        <v>1.300189340072648</v>
+        <v>1.298947311449679</v>
       </c>
       <c r="N9" t="n">
         <v>4.8</v>
@@ -1410,25 +1410,25 @@
         <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06006585144362724</v>
+        <v>0.06000847248776547</v>
       </c>
       <c r="U9" t="n">
         <v>828133000</v>
       </c>
       <c r="V9" t="n">
-        <v>38257899.99999999</v>
+        <v>38257900</v>
       </c>
       <c r="W9" t="n">
         <v>0.39394</v>
       </c>
       <c r="X9" t="n">
-        <v>0.41942</v>
+        <v>0.41902</v>
       </c>
       <c r="Y9" t="n">
         <v>0.79538</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9141899999999999</v>
+        <v>0.91427</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>0.92464</v>
       </c>
       <c r="AE9" t="n">
-        <v>65.17</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="10">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>233.31</v>
+        <v>233.725</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>59431754363.52</v>
+        <v>59537468555.2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1597,13 +1597,13 @@
         <v>15.3</v>
       </c>
       <c r="K11" t="n">
-        <v>21.82507015902713</v>
+        <v>21.86389148737138</v>
       </c>
       <c r="L11" t="n">
         <v>37.09480438691119</v>
       </c>
       <c r="M11" t="n">
-        <v>1.738459560241739</v>
+        <v>1.735372767140871</v>
       </c>
       <c r="N11" t="n">
         <v>4.056</v>
@@ -1624,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1766426028126774</v>
+        <v>0.1763289578018003</v>
       </c>
       <c r="U11" t="n">
         <v>2507000000</v>
@@ -1636,13 +1636,13 @@
         <v>0.18182</v>
       </c>
       <c r="X11" t="n">
-        <v>0.56079</v>
+        <v>0.5598</v>
       </c>
       <c r="Y11" t="n">
         <v>0.80874</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.74765</v>
+        <v>0.7481</v>
       </c>
       <c r="AA11" t="n">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>64.13</v>
+        <v>64.11</v>
       </c>
     </row>
     <row r="12">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>85.56</v>
+        <v>85.675</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>10263692040</v>
+        <v>10277487325</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1704,13 +1704,13 @@
         <v>4.34</v>
       </c>
       <c r="K12" t="n">
-        <v>22.10852713178295</v>
+        <v>22.13824289405685</v>
       </c>
       <c r="L12" t="n">
         <v>32.45446660884649</v>
       </c>
       <c r="M12" t="n">
-        <v>1.496026180458158</v>
+        <v>1.494018091625328</v>
       </c>
       <c r="N12" t="n">
         <v>1.28</v>
@@ -1731,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3002539812306846</v>
+        <v>0.2998509557525226</v>
       </c>
       <c r="U12" t="n">
         <v>597700000</v>
@@ -1743,13 +1743,13 @@
         <v>0.36364</v>
       </c>
       <c r="X12" t="n">
-        <v>0.48259</v>
+        <v>0.48194</v>
       </c>
       <c r="Y12" t="n">
         <v>0.92437</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.57107</v>
+        <v>0.57164</v>
       </c>
       <c r="AA12" t="n">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0.88608</v>
       </c>
       <c r="AE12" t="n">
-        <v>62.69</v>
+        <v>62.68</v>
       </c>
     </row>
     <row r="13">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>560.361</v>
+        <v>559.79</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>44044544949.744</v>
+        <v>43999664176.16</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1811,13 +1811,13 @@
         <v>16.77</v>
       </c>
       <c r="K13" t="n">
-        <v>37.5074297188755</v>
+        <v>37.46921017402945</v>
       </c>
       <c r="L13" t="n">
         <v>40.22395933041592</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14212088278806</v>
+        <v>1.143285875060291</v>
       </c>
       <c r="N13" t="n">
         <v>6.4</v>
@@ -1838,25 +1838,25 @@
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07839047605864755</v>
+        <v>0.07847043633273157</v>
       </c>
       <c r="U13" t="n">
         <v>1145178000</v>
       </c>
       <c r="V13" t="n">
-        <v>78600304</v>
+        <v>78600304.00000001</v>
       </c>
       <c r="W13" t="n">
         <v>0.27273</v>
       </c>
       <c r="X13" t="n">
-        <v>0.36843</v>
+        <v>0.3688</v>
       </c>
       <c r="Y13" t="n">
         <v>0.74582</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.88801</v>
+        <v>0.8879</v>
       </c>
       <c r="AA13" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>0.9690299999999999</v>
       </c>
       <c r="AE13" t="n">
-        <v>61.44</v>
+        <v>61.45</v>
       </c>
     </row>
     <row r="14">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>140.36</v>
+        <v>140.89</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3144288576</v>
+        <v>3156161424</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1918,13 +1918,13 @@
         <v>9.16</v>
       </c>
       <c r="K14" t="n">
-        <v>20.16666666666667</v>
+        <v>20.24281609195402</v>
       </c>
       <c r="L14" t="n">
         <v>30.44136060100167</v>
       </c>
       <c r="M14" t="n">
-        <v>1.567398119122257</v>
+        <v>1.561501880899993</v>
       </c>
       <c r="N14" t="n">
         <v>2.2</v>
@@ -1945,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1012977338710798</v>
+        <v>0.1009166720572415</v>
       </c>
       <c r="U14" t="n">
         <v>346624000</v>
@@ -1957,13 +1957,13 @@
         <v>0.12121</v>
       </c>
       <c r="X14" t="n">
-        <v>0.50561</v>
+        <v>0.50371</v>
       </c>
       <c r="Y14" t="n">
         <v>0.9855</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.85529</v>
+        <v>0.85583</v>
       </c>
       <c r="AA14" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>0.90852</v>
       </c>
       <c r="AE14" t="n">
-        <v>61.33</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="15">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92.64</v>
+        <v>92.75</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>9496804320</v>
+        <v>9508080750</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -2025,13 +2025,13 @@
         <v>7.7</v>
       </c>
       <c r="K15" t="n">
-        <v>19.6271186440678</v>
+        <v>19.65042372881356</v>
       </c>
       <c r="L15" t="n">
         <v>38.55185035584454</v>
       </c>
       <c r="M15" t="n">
-        <v>1.813471502590674</v>
+        <v>1.811320754716981</v>
       </c>
       <c r="N15" t="n">
         <v>1.68</v>
@@ -2052,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4155662747569648</v>
+        <v>0.4150734198758514</v>
       </c>
       <c r="U15" t="n">
         <v>447352000</v>
@@ -2064,13 +2064,13 @@
         <v>0.18182</v>
       </c>
       <c r="X15" t="n">
-        <v>0.58499</v>
+        <v>0.5843</v>
       </c>
       <c r="Y15" t="n">
         <v>0.77817</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.40633</v>
+        <v>0.40704</v>
       </c>
       <c r="AA15" t="n">
         <v>1</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>61.02</v>
+        <v>61.01</v>
       </c>
     </row>
     <row r="16">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>73.48</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3876194916</v>
+        <v>3854566719</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -2132,13 +2132,13 @@
         <v>4.66</v>
       </c>
       <c r="K16" t="n">
-        <v>21.36046511627907</v>
+        <v>21.24127906976744</v>
       </c>
       <c r="L16" t="n">
         <v>34.8706205138453</v>
       </c>
       <c r="M16" t="n">
-        <v>2.014153511159499</v>
+        <v>2.025455043109347</v>
       </c>
       <c r="N16" t="n">
         <v>1.48</v>
@@ -2159,25 +2159,25 @@
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4643510527093296</v>
+        <v>0.4669565533472225</v>
       </c>
       <c r="U16" t="n">
         <v>228814000</v>
       </c>
       <c r="V16" t="n">
-        <v>52751700</v>
+        <v>52751700.00000001</v>
       </c>
       <c r="W16" t="n">
         <v>0.09091</v>
       </c>
       <c r="X16" t="n">
-        <v>0.64973</v>
+        <v>0.65337</v>
       </c>
       <c r="Y16" t="n">
         <v>0.86032</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.33664</v>
+        <v>0.33292</v>
       </c>
       <c r="AA16" t="n">
         <v>1</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>60.49</v>
+        <v>60.54</v>
       </c>
     </row>
     <row r="17">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.71</v>
+        <v>53.59</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>182816492715.52</v>
+        <v>182408040302.08</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -2239,13 +2239,13 @@
         <v>5.48</v>
       </c>
       <c r="K17" t="n">
-        <v>11.00614754098361</v>
+        <v>10.98155737704918</v>
       </c>
       <c r="L17" t="n">
         <v>32.72863088250987</v>
       </c>
       <c r="M17" t="n">
-        <v>2.978961087320797</v>
+        <v>2.985631647695465</v>
       </c>
       <c r="N17" t="n">
         <v>1.6</v>
@@ -2266,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>0.251243835517953</v>
+        <v>0.2518064266779111</v>
       </c>
       <c r="U17" t="n">
         <v>40358000000</v>
@@ -2278,13 +2278,13 @@
         <v>0.06061</v>
       </c>
       <c r="X17" t="n">
-        <v>0.96096</v>
+        <v>0.96311</v>
       </c>
       <c r="Y17" t="n">
         <v>0.9166299999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.64108</v>
+        <v>0.64028</v>
       </c>
       <c r="AA17" t="n">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         <v>0.59558</v>
       </c>
       <c r="AE17" t="n">
-        <v>58.98</v>
+        <v>59.03</v>
       </c>
     </row>
     <row r="18">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>79.41500000000001</v>
+        <v>79.47</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6272189076.16</v>
+        <v>6276532970.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2346,13 +2346,13 @@
         <v>4.7</v>
       </c>
       <c r="K18" t="n">
-        <v>25.78409090909091</v>
+        <v>25.80194805194805</v>
       </c>
       <c r="L18" t="n">
         <v>47.24409448818898</v>
       </c>
       <c r="M18" t="n">
-        <v>1.91399609645533</v>
+        <v>1.912671448345288</v>
       </c>
       <c r="N18" t="n">
         <v>1.52</v>
@@ -2373,25 +2373,25 @@
         <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4459210264142084</v>
+        <v>0.4456124111323061</v>
       </c>
       <c r="U18" t="n">
         <v>339000000</v>
       </c>
       <c r="V18" t="n">
-        <v>78979903.99999999</v>
+        <v>78979904</v>
       </c>
       <c r="W18" t="n">
         <v>0.09091</v>
       </c>
       <c r="X18" t="n">
-        <v>0.61742</v>
+        <v>0.61699</v>
       </c>
       <c r="Y18" t="n">
         <v>0.635</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.36297</v>
+        <v>0.36341</v>
       </c>
       <c r="AA18" t="n">
         <v>1</v>
@@ -2406,7 +2406,7 @@
         <v>0.74863</v>
       </c>
       <c r="AE18" t="n">
-        <v>50.15</v>
+        <v>50.14</v>
       </c>
     </row>
     <row r="19">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>99.2</v>
+        <v>98.88</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>39735056793.6</v>
+        <v>39606879191.04</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -2453,13 +2453,13 @@
         <v>4.24</v>
       </c>
       <c r="K19" t="n">
-        <v>27.70949720670391</v>
+        <v>27.62011173184358</v>
       </c>
       <c r="L19" t="n">
         <v>39.05930470347649</v>
       </c>
       <c r="M19" t="n">
-        <v>1.57258064516129</v>
+        <v>1.577669902912621</v>
       </c>
       <c r="N19" t="n">
         <v>1.56</v>
@@ -2480,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4230389878463571</v>
+        <v>0.4244080460594521</v>
       </c>
       <c r="U19" t="n">
         <v>1489000000</v>
@@ -2492,13 +2492,13 @@
         <v>0.09091</v>
       </c>
       <c r="X19" t="n">
-        <v>0.50728</v>
+        <v>0.50893</v>
       </c>
       <c r="Y19" t="n">
         <v>0.76806</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.39566</v>
+        <v>0.3937</v>
       </c>
       <c r="AA19" t="n">
         <v>1</v>
@@ -2513,7 +2513,7 @@
         <v>0.66667</v>
       </c>
       <c r="AE19" t="n">
-        <v>46.59</v>
+        <v>46.61</v>
       </c>
     </row>
     <row r="20">
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>154.37</v>
+        <v>154.796</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>33819379600</v>
+        <v>33912707680</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2560,13 +2560,13 @@
         <v>7.84</v>
       </c>
       <c r="K20" t="n">
-        <v>32.43067226890756</v>
+        <v>32.52016806722689</v>
       </c>
       <c r="L20" t="n">
         <v>46.82154943748285</v>
       </c>
       <c r="M20" t="n">
-        <v>1.943382781628555</v>
+        <v>1.93803457453681</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
@@ -2587,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5153186877259547</v>
+        <v>0.5139005260100754</v>
       </c>
       <c r="U20" t="n">
         <v>826200000</v>
@@ -2599,13 +2599,13 @@
         <v>0.09091</v>
       </c>
       <c r="X20" t="n">
-        <v>0.6269</v>
+        <v>0.62517</v>
       </c>
       <c r="Y20" t="n">
         <v>0.64073</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.26383</v>
+        <v>0.26586</v>
       </c>
       <c r="AA20" t="n">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>0.5862000000000001</v>
       </c>
       <c r="AE20" t="n">
-        <v>44.58</v>
+        <v>44.55</v>
       </c>
     </row>
   </sheetData>
